--- a/data/08_reporting/modeling_mrs90/tripod/mrs90_tripod_excel.xlsx
+++ b/data/08_reporting/modeling_mrs90/tripod/mrs90_tripod_excel.xlsx
@@ -618,7 +618,7 @@
         <v>0.2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1233031674208144</v>
+        <v>0.1187782805429864</v>
       </c>
       <c r="C2" t="n">
         <v>0.0780542986425339</v>
@@ -632,7 +632,7 @@
         <v>0.3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.0698125404007757</v>
       </c>
       <c r="C3" t="n">
         <v>-0.0536522301228183</v>
@@ -646,7 +646,7 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0241327300150829</v>
+        <v>0.0437405731523379</v>
       </c>
       <c r="C4" t="n">
         <v>-0.229260935143288</v>
@@ -660,7 +660,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0271493212669683</v>
+        <v>0.0316742081447964</v>
       </c>
       <c r="C5" t="n">
         <v>-0.4751131221719456</v>
@@ -6579,10 +6579,10 @@
         </is>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7099,10 +7099,10 @@
         </is>
       </c>
       <c r="C71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="C83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7899,10 +7899,10 @@
         </is>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>["age", "sex", "aspects", "occlusion_site", "hemisphere", "thrombolytics", "ivt_given", "ivt_different_hospital", "transfer_from_other_hospital", "onset_to_ivt_min", "onset_to_puncture_min", "admission_nihss", "mrs_before", "antithrombotics_before", "statins_before", "hypertension", "diabetes", "hyperlipidemia", "smoking", "alcohol_abuse", "bmi", "arrhythmia", "tia_before", "cmp_before", "heart_condition", "systolic_bp", "diastolic_bp", "glycemia", "cholesterol", "etiology", "age_missing", "aspects_missing", "onset_to_ivt_min_missing", "onset_to_puncture_min_missing", "bmi_missing", "systolic_bp_missing", "diastolic_bp_missing", "cholesterol_missing", "glycemia_missing", "procedure_duration_missing", "admission_nihss_missing", "mrs_before_missing", "sex_missing", "hemisphere_missing", "occlusion_site_missing", "etiology_missing", "ivt_given_missing", "thrombolytics_missing", "ivt_different_hospital_missing", "transfer_from_other_hospital_missing", "antithrombotics_before_missing", "statins_before_missing", "hypertension_missing", "diabetes_missing", "hyperlipidemia_missing", "smoking_missing", "alcohol_abuse_missing", "arrhythmia_missing", "tia_before_missing", "cmp_before_missing", "heart_condition_missing", "sich_missing", "non_sich_missing", "procedure_missing", "tici_missing", "stent_combo_missing", "age_x_nihss"]</t>
+          <t>["age", "sex", "aspects", "occlusion_site", "hemisphere", "thrombolytics", "ivt_given", "ivt_different_hospital", "transfer_from_other_hospital", "onset_to_ivt_min", "onset_to_puncture_min", "admission_nihss", "mrs_before", "antithrombotics_before", "statins_before", "hypertension", "diabetes", "hyperlipidemia", "smoking", "alcohol_abuse", "bmi", "arrhythmia", "tia_before", "cmp_before", "heart_condition", "systolic_bp", "diastolic_bp", "glycemia", "cholesterol", "etiology", "age_missing", "aspects_missing", "onset_to_ivt_min_missing", "onset_to_puncture_min_missing", "bmi_missing", "systolic_bp_missing", "diastolic_bp_missing", "cholesterol_missing", "glycemia_missing", "procedure_duration_missing", "admission_nihss_missing", "mrs_before_missing", "sex_missing", "hemisphere_missing", "occlusion_site_missing", "etiology_missing", "ivt_given_missing", "thrombolytics_missing", "ivt_different_hospital_missing", "transfer_from_other_hospital_missing", "antithrombotics_before_missing", "statins_before_missing", "hypertension_missing", "diabetes_missing", "hyperlipidemia_missing", "smoking_missing", "alcohol_abuse_missing", "arrhythmia_missing", "tia_before_missing", "cmp_before_missing", "heart_condition_missing", "age_x_nihss", "age_x_onset_to_puncture_min"]</t>
         </is>
       </c>
     </row>
@@ -8070,7 +8070,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-1, 0, 1, 0, 0, 0, 0, 0, 0, 0, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[-1, 0, 1, 0, 0, 0, 0, 0, 0, 0, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -8092,7 +8092,11 @@
           <t>lightgbm_params.class_weight</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>balanced</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8101,7 +8105,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5059222633997253</v>
+        <v>0.4035921987889931</v>
       </c>
     </row>
     <row r="8">
@@ -8123,7 +8127,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03095104869366156</v>
+        <v>0.02560957212090371</v>
       </c>
     </row>
     <row r="10">
@@ -8143,7 +8147,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
@@ -8173,7 +8177,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>263</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15">
@@ -8193,7 +8197,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -8225,7 +8229,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.367057563936692</v>
+        <v>3.497246346487486</v>
       </c>
     </row>
     <row r="20">
@@ -8235,7 +8239,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.179169826935683</v>
+        <v>2.300374909716438</v>
       </c>
     </row>
     <row r="21">
@@ -8245,7 +8249,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9399430554852175</v>
+        <v>0.9574353136316142</v>
       </c>
     </row>
     <row r="22">
@@ -8276,7 +8280,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[-1, 0, 1, 0, 0, 0, 0, 0, 0, 0, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[-1, 0, 1, 0, 0, 0, 0, 0, 0, 0, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8321,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -8327,7 +8331,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>263</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30">
@@ -8337,7 +8341,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.03095104869366156</v>
+        <v>0.02560957212090371</v>
       </c>
     </row>
     <row r="31">
@@ -8347,7 +8351,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -8357,7 +8361,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>53</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33">
@@ -8367,7 +8371,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9399430554852175</v>
+        <v>0.9574353136316142</v>
       </c>
     </row>
     <row r="34">
@@ -8377,7 +8381,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5059222633997253</v>
+        <v>0.4035921987889931</v>
       </c>
     </row>
     <row r="35">
@@ -8387,7 +8391,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.367057563936692</v>
+        <v>3.497246346487486</v>
       </c>
     </row>
     <row r="36">
@@ -8397,7 +8401,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.179169826935683</v>
+        <v>2.300374909716438</v>
       </c>
     </row>
     <row r="37">
@@ -8406,7 +8410,11 @@
           <t>optuna_best_params.class_weight</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>balanced</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8415,7 +8423,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.03959186975620549</v>
+        <v>-0.2821842193428618</v>
       </c>
     </row>
     <row r="39">
@@ -8425,7 +8433,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9684718812349178</v>
+        <v>0.9847554536623854</v>
       </c>
     </row>
     <row r="40">
@@ -8528,25 +8536,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7558488902310827</v>
+        <v>0.7460214302066981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0206743777741691</v>
+        <v>0.0408129613143558</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6070833259644575</v>
+        <v>0.6062386553152509</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -8556,25 +8564,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1983540856888337</v>
+        <v>0.2046828062695386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008196617742053399</v>
+        <v>0.0153648749669446</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6070833259644575</v>
+        <v>0.6062386553152509</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -8584,25 +8592,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5827441062687961</v>
+        <v>0.5966445583584723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0202540117327433</v>
+        <v>0.0360914891777909</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6070833259644575</v>
+        <v>0.6062386553152509</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -8671,19 +8679,19 @@
         <v>1131</v>
       </c>
       <c r="C2" t="n">
-        <v>0.876527234619022</v>
+        <v>0.8488005776653119</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1496124174228281</v>
+        <v>0.1646835503135077</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4679452128941005</v>
+        <v>0.5035210563650032</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1088440663637966</v>
+        <v>-0.3188858930067806</v>
       </c>
       <c r="G2" t="n">
-        <v>1.782406587827158</v>
+        <v>1.546885916460384</v>
       </c>
     </row>
     <row r="3">
@@ -8696,19 +8704,19 @@
         <v>221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7922572456103237</v>
+        <v>0.8017770255976306</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1669504093279726</v>
+        <v>0.1801554372355502</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5035111533206741</v>
+        <v>0.535489658697098</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6767967235997384</v>
+        <v>-0.983157210769516</v>
       </c>
       <c r="G3" t="n">
-        <v>1.16758241378956</v>
+        <v>1.228419549782047</v>
       </c>
     </row>
     <row r="4">
@@ -8721,19 +8729,19 @@
         <v>1131</v>
       </c>
       <c r="C4" t="n">
-        <v>0.876527234619022</v>
+        <v>0.8488005776653119</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1507203892604048</v>
+        <v>0.1621268190152828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4710585573833802</v>
+        <v>0.4970531772542555</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1814750939313858</v>
+        <v>0.1237646816849213</v>
       </c>
       <c r="G4" t="n">
-        <v>1.839130216920494</v>
+        <v>1.569747035676886</v>
       </c>
     </row>
     <row r="5">
@@ -8746,19 +8754,19 @@
         <v>221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7922572456103237</v>
+        <v>0.8017770255976306</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1654163645891376</v>
+        <v>0.1626365090999303</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5006553021466883</v>
+        <v>0.4949858004631719</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6294555741071557</v>
+        <v>-0.6313289116599665</v>
       </c>
       <c r="G5" t="n">
-        <v>1.202673872787994</v>
+        <v>1.246203499460442</v>
       </c>
     </row>
   </sheetData>
@@ -8852,37 +8860,37 @@
         <v>0.3</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5276073619631901</v>
+        <v>0.4907975460122699</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3937007874015748</v>
+        <v>0.3805970149253731</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9195402298850576</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5927601809954751</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5746606334841629</v>
+        <v>0.6063348416289592</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3937007874015748</v>
+        <v>0.3805970149253731</v>
       </c>
       <c r="M2" t="n">
         <v>221</v>
@@ -8893,7 +8901,7 @@
         <v>0.5</v>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
         <v>31</v>
@@ -8902,28 +8910,28 @@
         <v>132</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6379310344827587</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="G3" t="n">
         <v>0.8098159509202454</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5441176470588235</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3122171945701357</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5441176470588235</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="M3" t="n">
         <v>221</v>
@@ -8934,37 +8942,37 @@
         <v>0.7</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E4" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="G4" t="n">
-        <v>0.98159509202454</v>
+        <v>0.9693251533742332</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.7939698492462312</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7873303167420814</v>
+        <v>0.7918552036199095</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.0995475113122171</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="M4" t="n">
         <v>221</v>
@@ -9016,7 +9024,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4215600798228169</v>
+        <v>0.4015809136036036</v>
       </c>
     </row>
     <row r="3">
@@ -9025,11 +9033,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>glycemia</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2825964273269967</v>
+        <v>0.2498929136044407</v>
       </c>
     </row>
     <row r="4">
@@ -9038,11 +9046,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>glycemia</t>
+          <t>age_x_onset_to_puncture_min</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2309361498390618</v>
+        <v>0.2315063790343151</v>
       </c>
     </row>
     <row r="5">
@@ -9051,11 +9059,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cholesterol</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1929563850930556</v>
+        <v>0.2096686664560065</v>
       </c>
     </row>
     <row r="6">
@@ -9064,11 +9072,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>onset_to_puncture_min</t>
+          <t>cholesterol</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1638070873954287</v>
+        <v>0.1959678256534454</v>
       </c>
     </row>
     <row r="7">
@@ -9081,7 +9089,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1272222472643346</v>
+        <v>0.1544130819403649</v>
       </c>
     </row>
     <row r="8">
@@ -9094,7 +9102,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.124276391146497</v>
+        <v>0.1212173085441236</v>
       </c>
     </row>
     <row r="9">
@@ -9107,7 +9115,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.119695075011453</v>
+        <v>0.1197020232094136</v>
       </c>
     </row>
     <row r="10">
@@ -9116,11 +9124,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>onset_to_ivt_min</t>
+          <t>hyperlipidemia</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1145753589212447</v>
+        <v>0.1069171603066535</v>
       </c>
     </row>
     <row r="11">
@@ -9129,11 +9137,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>hyperlipidemia</t>
+          <t>onset_to_ivt_min</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.103545976977812</v>
+        <v>0.0927345624178413</v>
       </c>
     </row>
     <row r="12">
@@ -9142,11 +9150,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>alcohol_abuse</t>
+          <t>antithrombotics_before</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.08148395892003368</v>
+        <v>0.09137756187258189</v>
       </c>
     </row>
     <row r="13">
@@ -9155,11 +9163,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>antithrombotics_before</t>
+          <t>statins_before</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.08079678941168854</v>
+        <v>0.07678381386411913</v>
       </c>
     </row>
     <row r="14">
@@ -9168,11 +9176,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>statins_before</t>
+          <t>mrs_before</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.07183278684420334</v>
+        <v>0.06184943102734224</v>
       </c>
     </row>
     <row r="15">
@@ -9181,11 +9189,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mrs_before</t>
+          <t>cholesterol_missing</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.05725415934806976</v>
+        <v>0.05782182974585862</v>
       </c>
     </row>
     <row r="16">
@@ -9194,11 +9202,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cholesterol_missing</t>
+          <t>systolic_bp</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.05608543103784244</v>
+        <v>0.05649176680359599</v>
       </c>
     </row>
     <row r="17">
@@ -9207,11 +9215,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>systolic_bp</t>
+          <t>bmi</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.05544655404916692</v>
+        <v>0.0464745385537834</v>
       </c>
     </row>
     <row r="18">
@@ -9220,11 +9228,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>transfer_from_other_hospital</t>
+          <t>aspects_missing</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0470502630212677</v>
+        <v>0.04433705147136093</v>
       </c>
     </row>
     <row r="19">
@@ -9233,11 +9241,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bmi</t>
+          <t>cmp_before</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.03660706550055286</v>
+        <v>0.03812586581422859</v>
       </c>
     </row>
     <row r="20">
@@ -9246,11 +9254,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cmp_before</t>
+          <t>onset_to_puncture_min</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.03059511784164975</v>
+        <v>0.03583591781246048</v>
       </c>
     </row>
     <row r="21">
@@ -9259,11 +9267,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>diastolic_bp</t>
+          <t>transfer_from_other_hospital</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02609722229243201</v>
+        <v>0.03506040918633244</v>
       </c>
     </row>
     <row r="22">
@@ -9272,11 +9280,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>aspects_missing</t>
+          <t>arrhythmia</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.02053081512016755</v>
+        <v>0.02228630874005851</v>
       </c>
     </row>
     <row r="23">
@@ -9285,11 +9293,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>arrhythmia</t>
+          <t>diastolic_bp</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01448478187898113</v>
+        <v>0.02112250918718072</v>
       </c>
     </row>
     <row r="24">
@@ -9302,7 +9310,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01232550716713125</v>
+        <v>0.01773569066566806</v>
       </c>
     </row>
     <row r="25">
@@ -9311,11 +9319,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>diabetes</t>
+          <t>etiology</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.008710526021627302</v>
+        <v>0.0154411364405764</v>
       </c>
     </row>
     <row r="26">
@@ -9324,11 +9332,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>etiology</t>
+          <t>hemisphere</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.007720375359154561</v>
+        <v>0.009630187777170247</v>
       </c>
     </row>
     <row r="27">
@@ -9337,11 +9345,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ivt_given</t>
+          <t>ivt_different_hospital</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.006852037118008429</v>
+        <v>0.007666118766275604</v>
       </c>
     </row>
     <row r="28">
@@ -9350,11 +9358,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>smoking</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.004676386125696828</v>
+        <v>0.003832149656461768</v>
       </c>
     </row>
     <row r="29">
@@ -9363,11 +9371,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>glycemia_missing</t>
+          <t>ivt_given</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.003428756588137279</v>
+        <v>0.003256496908349235</v>
       </c>
     </row>
     <row r="30">
@@ -9376,11 +9384,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ivt_different_hospital</t>
+          <t>glycemia_missing</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.002835634144599974</v>
+        <v>0.002463743786928721</v>
       </c>
     </row>
     <row r="31">
@@ -9389,11 +9397,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>onset_to_ivt_min_missing</t>
+          <t>diabetes</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.001048424987640442</v>
+        <v>0.002099535006415093</v>
       </c>
     </row>
   </sheetData>
